--- a/isitword test/wordorder.xlsx
+++ b/isitword test/wordorder.xlsx
@@ -457,65 +457,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>word/wordth0713.png</t>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>word/wordth0662.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>word/worden0443.png</t>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>word/wordth0682.png</t>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -543,11 +543,11 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word/worden0223.png</t>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -556,94 +556,94 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>word/wordth0071.png</t>
+          <t>word/wordth0092.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/wordth0012.png</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>word/worden0242.png</t>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>word/wordth0062.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>word/worden0102.png</t>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>word/worden0033.png</t>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -668,46 +668,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>word/wordth0082.png</t>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>word/wordth0422.png</t>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -716,94 +716,94 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>word/wordth0702.png</t>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>word/wordth0073.png</t>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>word/worden0013.png</t>
+          <t>word/wordth0233.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>word/wordth0681.png</t>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>word/wordth0893.png</t>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>word/worden0943.png</t>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
@@ -812,78 +812,78 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>word/worden0683.png</t>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>word/wordth0103.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>word/worden0883.png</t>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>word/wordth0221.png</t>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -895,11 +895,11 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>word/wordth0271.png</t>
+          <t>word/wordth0751.png</t>
         </is>
       </c>
     </row>
@@ -908,30 +908,30 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>word/worden0872.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>word/wordth0302.png</t>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -943,43 +943,43 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>word/wordth0502.png</t>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>word/worden0112.png</t>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>word/wordth0822.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -988,14 +988,14 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>word/worden0263.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>word/worden0702.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -1020,14 +1020,14 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>word/wordth0112.png</t>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -1036,14 +1036,14 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>word/worden0272.png</t>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -1052,94 +1052,94 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>word/worden0952.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>word/wordth0241.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>word/worden0283.png</t>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>word/wordth0011.png</t>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -1151,27 +1151,27 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>word/wordth0933.png</t>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>word/wordth0311.png</t>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -1180,30 +1180,30 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>word/wordth0411.png</t>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>word/wordth0523.png</t>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1215,43 +1215,43 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>word/worden0243.png</t>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>word/wordth0873.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -1260,62 +1260,62 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>word/wordth0481.png</t>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/wordth0231.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>word/wordth0712.png</t>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>word/worden0032.png</t>
+          <t>word/wordth0943.png</t>
         </is>
       </c>
     </row>
@@ -1337,65 +1337,65 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>word/wordth0443.png</t>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>word/worden0512.png</t>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/wordth0462.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>word/wordth0701.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -1407,123 +1407,123 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>word/worden0073.png</t>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>word/wordth0482.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>word/wordth0462.png</t>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>word/wordth0243.png</t>
+          <t>word/worden0412.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>word/worden0423.png</t>
+          <t>word/wordth0282.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>word/wordth0283.png</t>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>word/wordth0031.png</t>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -1532,78 +1532,78 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>word/wordth0013.png</t>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>word/worden0082.png</t>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -1612,30 +1612,30 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>word/worden0412.png</t>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>word/wordth0823.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -1647,43 +1647,43 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>word/worden0513.png</t>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>word/wordth0503.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
     </row>
@@ -1695,43 +1695,43 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>word/wordth0312.png</t>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>word/wordth0872.png</t>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>word/worden0482.png</t>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -1743,11 +1743,11 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -1759,11 +1759,11 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>word/wordth0952.png</t>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -1775,27 +1775,27 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>word/wordth0963.png</t>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>word/wordth0932.png</t>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>word/wordth0943.png</t>
+          <t>word/wordth0463.png</t>
         </is>
       </c>
     </row>
@@ -1823,27 +1823,27 @@
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>word/worden0273.png</t>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -1855,11 +1855,11 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>word/worden0092.png</t>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -1868,46 +1868,46 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>word/wordth0891.png</t>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>word/wordth0892.png</t>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>word/worden0633.png</t>
+          <t>word/wordth0091.png</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -1932,62 +1932,62 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>word/wordth0093.png</t>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>word/wordth0511.png</t>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>word/worden0302.png</t>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -1996,30 +1996,30 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>word/worden0963.png</t>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>word/wordth0102.png</t>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -2028,14 +2028,14 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>word/wordth0711.png</t>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -2044,14 +2044,14 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>word/wordth0521.png</t>
+          <t>word/wordth0232.png</t>
         </is>
       </c>
     </row>
@@ -2060,14 +2060,14 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>word/wordth0951.png</t>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -2076,78 +2076,78 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>word/worden0642.png</t>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>word/wordth0113.png</t>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>word/wordth0231.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>word/worden0422.png</t>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>word/wordth0233.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -2156,14 +2156,14 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>word/wordth0611.png</t>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -2172,110 +2172,110 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>word/worden0063.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>word/wordth0953.png</t>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>word/worden0942.png</t>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
         <v>27</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>word/wordth0931.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>word/worden0072.png</t>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -2287,11 +2287,11 @@
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>word/worden0233.png</t>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -2303,49 +2303,49 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>word/wordth0263.png</t>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>word/worden0442.png</t>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>word/wordth0083.png</t>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>word/wordth0441.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
     </row>
@@ -2364,30 +2364,30 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>word/worden0113.png</t>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -2396,30 +2396,30 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>word/worden0893.png</t>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124" t="n">
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>word/wordth0752.png</t>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -2428,14 +2428,14 @@
         <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>word/worden0062.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -2447,11 +2447,11 @@
         <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>word/wordth0282.png</t>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -2460,30 +2460,30 @@
         <v>2</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>word/wordth0632.png</t>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -2492,174 +2492,174 @@
         <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>word/worden0083.png</t>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>word/worden0313.png</t>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>word/wordth0613.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>word/wordth0281.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>word/wordth0012.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>word/worden0312.png</t>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136" t="n">
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>word/wordth0612.png</t>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
         <v>46</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>word/wordth0463.png</t>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>word/worden0012.png</t>
+          <t>word/wordth0942.png</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>52</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>word/worden0523.png</t>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -2668,14 +2668,14 @@
         <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>word/wordth0313.png</t>
+          <t>word/wordth0962.png</t>
         </is>
       </c>
     </row>
@@ -2684,30 +2684,30 @@
         <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>word/worden0662.png</t>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>word/wordth0821.png</t>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -2716,14 +2716,14 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>word/wordth0063.png</t>
+          <t>word/wordth0712.png</t>
         </is>
       </c>
     </row>
@@ -2732,46 +2732,46 @@
         <v>2</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>word/worden0103.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>word/worden0932.png</t>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>word/worden0612.png</t>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -2783,75 +2783,75 @@
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>word/wordth0413.png</t>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>word/wordth0072.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/wordth0963.png</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/wordth0711.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>word/wordth0223.png</t>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -2863,11 +2863,11 @@
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>word/worden0483.png</t>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -2876,14 +2876,14 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>word/wordth0753.png</t>
+          <t>word/wordth0411.png</t>
         </is>
       </c>
     </row>
@@ -2892,30 +2892,30 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>word/wordth0512.png</t>
+          <t>word/wordth0093.png</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>word/worden0712.png</t>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>word/wordth0881.png</t>
+          <t>word/wordth0461.png</t>
         </is>
       </c>
     </row>
@@ -2940,30 +2940,30 @@
         <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>word/wordth0091.png</t>
+          <t>word/wordth0013.png</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>word/wordth0423.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -2972,46 +2972,46 @@
         <v>2</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>word/wordth0461.png</t>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>word/worden0682.png</t>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -3020,14 +3020,14 @@
         <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>word/worden0873.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -3036,62 +3036,62 @@
         <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>word/worden0643.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>word/wordth0882.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>word/wordth0961.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>word/worden0953.png</t>
+          <t>word/wordth0262.png</t>
         </is>
       </c>
     </row>
@@ -3100,62 +3100,62 @@
         <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>word/worden0933.png</t>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>word/wordth0641.png</t>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>word/wordth0222.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>word/worden0222.png</t>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -3164,14 +3164,14 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>word/worden0962.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -3183,11 +3183,11 @@
         <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>word/wordth0273.png</t>
+          <t>word/wordth0713.png</t>
         </is>
       </c>
     </row>
@@ -3196,14 +3196,14 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -3215,27 +3215,27 @@
         <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>word/wordth0633.png</t>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -3244,30 +3244,30 @@
         <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>word/wordth0033.png</t>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>word/wordth0061.png</t>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -3276,94 +3276,94 @@
         <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>word/wordth0513.png</t>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>word/worden0892.png</t>
+          <t>word/wordth0753.png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>word/worden0413.png</t>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>word/wordth0883.png</t>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
         <v>3</v>
       </c>
       <c r="C183" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>word/wordth0683.png</t>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -3372,14 +3372,14 @@
         <v>2</v>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>word/worden0503.png</t>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -3388,94 +3388,94 @@
         <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>word/wordth0501.png</t>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>word/worden0232.png</t>
+          <t>word/wordth0961.png</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>word/worden0282.png</t>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" t="n">
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>word/wordth0303.png</t>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -3487,27 +3487,27 @@
         <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>word/worden0632.png</t>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>word/wordth0661.png</t>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -3519,43 +3519,43 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>word/worden0663.png</t>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>word/worden0882.png</t>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -3564,30 +3564,30 @@
         <v>2</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>word/worden0703.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>word/wordth0101.png</t>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -3596,30 +3596,30 @@
         <v>2</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>word/worden0093.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
       </c>
       <c r="C199" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>word/wordth0262.png</t>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -3631,11 +3631,11 @@
         <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>word/wordth0092.png</t>
+          <t>word/wordth0752.png</t>
         </is>
       </c>
     </row>
@@ -3647,43 +3647,43 @@
         <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>word/worden0752.png</t>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>word/worden0822.png</t>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>word/wordth0442.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3692,14 @@
         <v>2</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -3708,14 +3708,14 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>word/wordth0642.png</t>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -3724,46 +3724,46 @@
         <v>1</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>word/wordth0631.png</t>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
         <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>word/worden0463.png</t>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>word/wordth0751.png</t>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -3772,30 +3772,30 @@
         <v>1</v>
       </c>
       <c r="B209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>word/wordth0663.png</t>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>word/worden0303.png</t>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -3804,14 +3804,14 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>word/wordth0272.png</t>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -3820,14 +3820,14 @@
         <v>2</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -3836,30 +3836,30 @@
         <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>word/wordth0941.png</t>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>word/wordth0242.png</t>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -3868,46 +3868,46 @@
         <v>2</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -3916,14 +3916,14 @@
         <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>word/wordth0871.png</t>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -3932,78 +3932,78 @@
         <v>1</v>
       </c>
       <c r="B219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>word/wordth0483.png</t>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>word/wordth0081.png</t>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>word/wordth0232.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>word/wordth0962.png</t>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -4015,11 +4015,11 @@
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>word/wordth0261.png</t>
+          <t>word/wordth0011.png</t>
         </is>
       </c>
     </row>
@@ -4028,14 +4028,14 @@
         <v>1</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>word/wordth0942.png</t>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -4047,27 +4047,27 @@
         <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>word/worden0823.png</t>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>word/wordth0032.png</t>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -4076,14 +4076,14 @@
         <v>1</v>
       </c>
       <c r="B228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>word/wordth0703.png</t>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -4092,14 +4092,14 @@
         <v>1</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>word/wordth0522.png</t>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -4108,14 +4108,14 @@
         <v>1</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>word/wordth0111.png</t>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -4124,14 +4124,14 @@
         <v>2</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C231" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>word/worden0262.png</t>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -4140,14 +4140,14 @@
         <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>word/wordth0412.png</t>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -4156,30 +4156,30 @@
         <v>2</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
       </c>
       <c r="C234" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>word/worden0462.png</t>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -4191,11 +4191,11 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>word/wordth0421.png</t>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -4204,14 +4204,14 @@
         <v>2</v>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>word/worden0753.png</t>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -4223,11 +4223,11 @@
         <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>word/worden0502.png</t>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -4236,62 +4236,62 @@
         <v>1</v>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>word/wordth0643.png</t>
+          <t>word/wordth0941.png</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C239" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>word/worden0522.png</t>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>word/worden0713.png</t>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>word/worden0613.png</t>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
